--- a/biology/Botanique/Malpighia/Malpighia.xlsx
+++ b/biology/Botanique/Malpighia/Malpighia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malpighia est un genre de plantes à fleurs de la famille des Malpighiacées qui compte environ 10 espèces répandues principalement en Amérique centrale et Amérique du Sud.
 Parmi elles, on peut citer l'acérola (Malpighia glabra), un petit arbre au port buissonnant cultivé pour ses fruits comestibles appelées "cerises de la Barbade" et qui sont très riches en vitamine C.
@@ -513,7 +525,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Malpighia coccigera L.
 Malpighia cubensis Kunth
